--- a/fastplant_data.xlsx
+++ b/fastplant_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wallacea/Dropbox (MSUM Wallace)/ Org Bio 2018/ Lab Stuff/ Lab - Fast Plant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wc2659yd/Dropbox (MSUM Wallace)/ Org Bio 2018/ Lab Stuff/ Lab - Fast Plant/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2300" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23340" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="11">
   <si>
     <t>generation</t>
   </si>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B424" sqref="B424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,8 +404,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -415,6 +418,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -424,23 +430,5811 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165">
+        <v>17</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <v>17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>18</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>18</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <v>19</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <v>19</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178">
+        <v>19</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>19</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>20</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>20</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>20</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>20</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>20</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>21</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187">
+        <v>21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191">
+        <v>21</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <v>22</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196">
+        <v>22</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>22</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <v>23</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199">
+        <v>23</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>23</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>23</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>24</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>24</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>24</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>24</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>25</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208">
+        <v>25</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209">
+        <v>26</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210">
+        <v>26</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211">
+        <v>27</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213">
+        <v>27</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214">
+        <v>27</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217">
+        <v>27</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>27</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>27</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>27</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>28</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>28</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>28</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>29</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>30</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>30</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>32</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>34</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>34</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>34</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>34</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <v>35</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>35</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>35</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236">
+        <v>35</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>35</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>36</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239">
+        <v>37</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240">
+        <v>37</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241">
+        <v>37</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>37</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>37</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>37</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245">
+        <v>38</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>38</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>38</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>39</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>39</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250">
+        <v>39</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <v>39</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252">
+        <v>40</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>40</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254">
+        <v>40</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>42</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>42</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>42</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>42</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259">
+        <v>43</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>45</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>46</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>46</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263">
+        <v>48</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>51</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>52</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268">
+        <v>55</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>57</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>58</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>59</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>60</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>68</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274">
+        <v>72</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>73</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276">
+        <v>75</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281">
+        <v>13</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282">
+        <v>15</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>16</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284">
+        <v>38</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285">
+        <v>42</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286">
+        <v>43</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287">
+        <v>57</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <v>60</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289">
+        <v>62</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>64</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>3</v>
+      </c>
+      <c r="B294">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>3</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298">
+        <v>8</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299">
+        <v>8</v>
+      </c>
+      <c r="C299" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>3</v>
+      </c>
+      <c r="B300">
+        <v>8</v>
+      </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301">
+        <v>8</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>9</v>
+      </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303">
+        <v>9</v>
+      </c>
+      <c r="C303" t="s">
+        <v>10</v>
+      </c>
+      <c r="D303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>10</v>
+      </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308">
+        <v>13</v>
+      </c>
+      <c r="C308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309">
+        <v>13</v>
+      </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310">
+        <v>14</v>
+      </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311">
+        <v>14</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312">
+        <v>14</v>
+      </c>
+      <c r="C312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313">
+        <v>15</v>
+      </c>
+      <c r="C313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314">
+        <v>16</v>
+      </c>
+      <c r="C314" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>3</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315" t="s">
+        <v>10</v>
+      </c>
+      <c r="D315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316">
+        <v>16</v>
+      </c>
+      <c r="C316" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317">
+        <v>16</v>
+      </c>
+      <c r="C317" t="s">
+        <v>10</v>
+      </c>
+      <c r="D317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318">
+        <v>17</v>
+      </c>
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319">
+        <v>17</v>
+      </c>
+      <c r="C319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320">
+        <v>17</v>
+      </c>
+      <c r="C320" t="s">
+        <v>10</v>
+      </c>
+      <c r="D320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>3</v>
+      </c>
+      <c r="B321">
+        <v>17</v>
+      </c>
+      <c r="C321" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322">
+        <v>17</v>
+      </c>
+      <c r="C322" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323">
+        <v>18</v>
+      </c>
+      <c r="C323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324">
+        <v>18</v>
+      </c>
+      <c r="C324" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>18</v>
+      </c>
+      <c r="C325" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326">
+        <v>18</v>
+      </c>
+      <c r="C326" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327">
+        <v>18</v>
+      </c>
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328">
+        <v>18</v>
+      </c>
+      <c r="C328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329">
+        <v>18</v>
+      </c>
+      <c r="C329" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330">
+        <v>18</v>
+      </c>
+      <c r="C330" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331">
+        <v>18</v>
+      </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332">
+        <v>19</v>
+      </c>
+      <c r="C332" t="s">
+        <v>10</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>3</v>
+      </c>
+      <c r="B333">
+        <v>19</v>
+      </c>
+      <c r="C333" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334">
+        <v>19</v>
+      </c>
+      <c r="C334" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335">
+        <v>19</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336">
+        <v>19</v>
+      </c>
+      <c r="C336" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337">
+        <v>20</v>
+      </c>
+      <c r="C337" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>20</v>
+      </c>
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339">
+        <v>20</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340">
+        <v>20</v>
+      </c>
+      <c r="C340" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341">
+        <v>20</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342">
+        <v>20</v>
+      </c>
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343">
+        <v>21</v>
+      </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344">
+        <v>21</v>
+      </c>
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>21</v>
+      </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
+      <c r="D345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>3</v>
+      </c>
+      <c r="B346">
+        <v>21</v>
+      </c>
+      <c r="C346" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347">
+        <v>21</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <v>22</v>
+      </c>
+      <c r="C348" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349">
+        <v>22</v>
+      </c>
+      <c r="C349" t="s">
+        <v>10</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>3</v>
+      </c>
+      <c r="B350">
+        <v>22</v>
+      </c>
+      <c r="C350" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>22</v>
+      </c>
+      <c r="C351" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>23</v>
+      </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353">
+        <v>23</v>
+      </c>
+      <c r="C353" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>23</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355">
+        <v>23</v>
+      </c>
+      <c r="C355" t="s">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>24</v>
+      </c>
+      <c r="C356" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>24</v>
+      </c>
+      <c r="C357" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>3</v>
+      </c>
+      <c r="B358">
+        <v>25</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359">
+        <v>25</v>
+      </c>
+      <c r="C359" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360">
+        <v>26</v>
+      </c>
+      <c r="C360" t="s">
+        <v>10</v>
+      </c>
+      <c r="D360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>26</v>
+      </c>
+      <c r="C361" t="s">
+        <v>10</v>
+      </c>
+      <c r="D361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>26</v>
+      </c>
+      <c r="C362" t="s">
+        <v>10</v>
+      </c>
+      <c r="D362" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>26</v>
+      </c>
+      <c r="C363" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364">
+        <v>27</v>
+      </c>
+      <c r="C364" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>28</v>
+      </c>
+      <c r="C365" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>28</v>
+      </c>
+      <c r="C366" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>28</v>
+      </c>
+      <c r="C367" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>28</v>
+      </c>
+      <c r="C368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>28</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>29</v>
+      </c>
+      <c r="C370" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>29</v>
+      </c>
+      <c r="C371" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>30</v>
+      </c>
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>31</v>
+      </c>
+      <c r="C373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>31</v>
+      </c>
+      <c r="C374" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>31</v>
+      </c>
+      <c r="C375" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>32</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>32</v>
+      </c>
+      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>32</v>
+      </c>
+      <c r="C378" t="s">
+        <v>10</v>
+      </c>
+      <c r="D378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>33</v>
+      </c>
+      <c r="C379" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>33</v>
+      </c>
+      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>34</v>
+      </c>
+      <c r="C381" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>34</v>
+      </c>
+      <c r="C382" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>34</v>
+      </c>
+      <c r="C383" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>34</v>
+      </c>
+      <c r="C384" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>35</v>
+      </c>
+      <c r="C385" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>35</v>
+      </c>
+      <c r="C386" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>35</v>
+      </c>
+      <c r="C387" t="s">
+        <v>10</v>
+      </c>
+      <c r="D387" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>35</v>
+      </c>
+      <c r="C388" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>35</v>
+      </c>
+      <c r="C389" t="s">
+        <v>10</v>
+      </c>
+      <c r="D389" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>36</v>
+      </c>
+      <c r="C390" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>36</v>
+      </c>
+      <c r="C391" t="s">
+        <v>10</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>36</v>
+      </c>
+      <c r="C392" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>3</v>
+      </c>
+      <c r="B393">
+        <v>36</v>
+      </c>
+      <c r="C393" t="s">
+        <v>10</v>
+      </c>
+      <c r="D393" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394">
+        <v>36</v>
+      </c>
+      <c r="C394" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+      <c r="B395">
+        <v>38</v>
+      </c>
+      <c r="C395" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <v>39</v>
+      </c>
+      <c r="C396" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>3</v>
+      </c>
+      <c r="B397">
+        <v>42</v>
+      </c>
+      <c r="C397" t="s">
+        <v>10</v>
+      </c>
+      <c r="D397" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>43</v>
+      </c>
+      <c r="C398" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>43</v>
+      </c>
+      <c r="C399" t="s">
+        <v>10</v>
+      </c>
+      <c r="D399" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>45</v>
+      </c>
+      <c r="C400" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401">
+        <v>45</v>
+      </c>
+      <c r="C401" t="s">
+        <v>10</v>
+      </c>
+      <c r="D401" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>3</v>
+      </c>
+      <c r="B402">
+        <v>46</v>
+      </c>
+      <c r="C402" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>3</v>
+      </c>
+      <c r="B403">
+        <v>46</v>
+      </c>
+      <c r="C403" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>3</v>
+      </c>
+      <c r="B404">
+        <v>47</v>
+      </c>
+      <c r="C404" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>3</v>
+      </c>
+      <c r="B405">
+        <v>47</v>
+      </c>
+      <c r="C405" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>3</v>
+      </c>
+      <c r="B406">
+        <v>48</v>
+      </c>
+      <c r="C406" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>3</v>
+      </c>
+      <c r="B407">
+        <v>49</v>
+      </c>
+      <c r="C407" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>3</v>
+      </c>
+      <c r="B408">
+        <v>52</v>
+      </c>
+      <c r="C408" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>3</v>
+      </c>
+      <c r="B409">
+        <v>53</v>
+      </c>
+      <c r="C409" t="s">
+        <v>10</v>
+      </c>
+      <c r="D409" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410">
+        <v>54</v>
+      </c>
+      <c r="C410" t="s">
+        <v>10</v>
+      </c>
+      <c r="D410" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411">
+        <v>54</v>
+      </c>
+      <c r="C411" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>3</v>
+      </c>
+      <c r="B412">
+        <v>57</v>
+      </c>
+      <c r="C412" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>3</v>
+      </c>
+      <c r="B413">
+        <v>59</v>
+      </c>
+      <c r="C413" t="s">
+        <v>10</v>
+      </c>
+      <c r="D413" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>3</v>
+      </c>
+      <c r="B414">
+        <v>63</v>
+      </c>
+      <c r="C414" t="s">
+        <v>10</v>
+      </c>
+      <c r="D414" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>3</v>
+      </c>
+      <c r="B415">
+        <v>63</v>
+      </c>
+      <c r="C415" t="s">
+        <v>10</v>
+      </c>
+      <c r="D415" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>3</v>
+      </c>
+      <c r="B416">
+        <v>64</v>
+      </c>
+      <c r="C416" t="s">
+        <v>10</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>3</v>
+      </c>
+      <c r="B417">
+        <v>67</v>
+      </c>
+      <c r="C417" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>3</v>
+      </c>
+      <c r="B418">
+        <v>69</v>
+      </c>
+      <c r="C418" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418" t="s">
         <v>6</v>
       </c>
     </row>
